--- a/projects/ojt_project/public/Incomplete_Attendance_Cybersecurity_Basics_March_25_29__2025.xlsx
+++ b/projects/ojt_project/public/Incomplete_Attendance_Cybersecurity_Basics_March_25_29__2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,118 +421,118 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Anna Reyes</v>
+        <v>James Dela Cruz</v>
       </c>
       <c r="B2" t="str">
-        <v>anna.reyes@example.com</v>
+        <v>james.dc@example.com</v>
       </c>
       <c r="C2" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="D2" t="str">
-        <v>National Government Agency</v>
+        <v>Local Government Unit</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>James Dela Cruz</v>
+        <v>Liam Torres</v>
       </c>
       <c r="B3" t="str">
-        <v>james.dc@example.com</v>
+        <v>liam.torres@example.com</v>
       </c>
       <c r="C3" t="str">
         <v>Male</v>
       </c>
       <c r="D3" t="str">
-        <v>Local Government Unit</v>
+        <v>MSMEs</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Liam Torres</v>
+        <v>Carlos Navarro</v>
       </c>
       <c r="B4" t="str">
-        <v>liam.torres@example.com</v>
+        <v>carlos.navarro@example.com</v>
       </c>
       <c r="C4" t="str">
         <v>Male</v>
       </c>
       <c r="D4" t="str">
-        <v>MSMEs</v>
+        <v>Overseas Filipino Worker (OFW)</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Elaine Mendoza</v>
+        <v>Nina Domingo</v>
       </c>
       <c r="B5" t="str">
-        <v>elaine.mendoza@example.com</v>
+        <v>nina.domingo@example.com</v>
       </c>
       <c r="C5" t="str">
         <v>Female</v>
       </c>
       <c r="D5" t="str">
-        <v>Out of School Youth and Adult (OSYA)</v>
+        <v>Others</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Carlos Navarro</v>
+        <v>Bea Lim</v>
       </c>
       <c r="B6" t="str">
-        <v>carlos.navarro@example.com</v>
+        <v>bea.lim@example.com</v>
       </c>
       <c r="C6" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="D6" t="str">
-        <v>Overseas Filipino Worker (OFW)</v>
+        <v>Local Government Unit</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Marco Garcia</v>
+        <v>Isabella Cruz</v>
       </c>
       <c r="B7" t="str">
-        <v>marco.garcia@example.com</v>
+        <v>isabella.cruz@example.com</v>
       </c>
       <c r="C7" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="D7" t="str">
-        <v>Private</v>
+        <v>Student</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Nina Domingo</v>
+        <v>Noel Rivera</v>
       </c>
       <c r="B8" t="str">
-        <v>nina.domingo@example.com</v>
+        <v>noel.rivera@example.com</v>
       </c>
       <c r="C8" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="D8" t="str">
-        <v>Others</v>
+        <v>National Government Agency</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -540,194 +540,58 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bea Lim</v>
+        <v>Trisha Ong</v>
       </c>
       <c r="B9" t="str">
-        <v>bea.lim@example.com</v>
+        <v>trisha.ong@example.com</v>
       </c>
       <c r="C9" t="str">
         <v>Female</v>
       </c>
       <c r="D9" t="str">
-        <v>Local Government Unit</v>
+        <v>MSMEs</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Kyle Sy</v>
+        <v>Cheska Lao</v>
       </c>
       <c r="B10" t="str">
-        <v>kyle.sy@example.com</v>
+        <v>cheska.lao@example.com</v>
       </c>
       <c r="C10" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="D10" t="str">
-        <v>State Universities and Colleges</v>
+        <v>Overseas Filipino Worker (OFW)</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Isabella Cruz</v>
+        <v>Roberto Yu</v>
       </c>
       <c r="B11" t="str">
-        <v>isabella.cruz@example.com</v>
+        <v>roberto.yu@example.com</v>
       </c>
       <c r="C11" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="D11" t="str">
-        <v>Student</v>
+        <v>Others</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Noel Rivera</v>
-      </c>
-      <c r="B12" t="str">
-        <v>noel.rivera@example.com</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Male</v>
-      </c>
-      <c r="D12" t="str">
-        <v>National Government Agency</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Trisha Ong</v>
-      </c>
-      <c r="B13" t="str">
-        <v>trisha.ong@example.com</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Female</v>
-      </c>
-      <c r="D13" t="str">
-        <v>MSMEs</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Cheska Lao</v>
-      </c>
-      <c r="B14" t="str">
-        <v>cheska.lao@example.com</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Female</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Overseas Filipino Worker (OFW)</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Roberto Yu</v>
-      </c>
-      <c r="B15" t="str">
-        <v>roberto.yu@example.com</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Male</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Others</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Jared Bautista</v>
-      </c>
-      <c r="B16" t="str">
-        <v>jared.bautista@example.com</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Male</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Out of School Youth and Adult (OSYA)</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Faith Tan</v>
-      </c>
-      <c r="B17" t="str">
-        <v>faith.tan@example.com</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Female</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Private</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Leo Ramos</v>
-      </c>
-      <c r="B18" t="str">
-        <v>leo.ramos@example.com</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Male</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Student</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Aira Gomez</v>
-      </c>
-      <c r="B19" t="str">
-        <v>aira.gomez@example.com</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Female</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Student</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>